--- a/CRMPhone/templates/calls.xlsx
+++ b/CRMPhone/templates/calls.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Export!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Export!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>УК</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Время звонка</t>
+  </si>
+  <si>
+    <t>Направление</t>
   </si>
 </sst>
 </file>
@@ -868,21 +871,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1"/>
+    <col min="1" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -890,23 +893,26 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:H1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>